--- a/M.E.R. (1).xlsx
+++ b/M.E.R. (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Desktop\carroLoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F9D1F1-3704-43C0-840B-E36ED135E752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B69F4-F936-4CB7-A104-B8317C1A37D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -334,17 +334,33 @@
   </si>
   <si>
     <t>numeroHijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paises </t>
+  </si>
+  <si>
+    <t>id_pais</t>
+  </si>
+  <si>
+    <t>nom_pais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,74 +576,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +685,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7742917" y="3222844"/>
+          <a:off x="7740680" y="3139337"/>
           <a:ext cx="7601467" cy="1983286"/>
           <a:chOff x="4555426" y="3494252"/>
           <a:chExt cx="2292870" cy="699153"/>
@@ -862,7 +879,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8548883" y="1828148"/>
+          <a:off x="8546646" y="1781175"/>
           <a:ext cx="1790700" cy="47625"/>
           <a:chOff x="4450650" y="3756188"/>
           <a:chExt cx="1790700" cy="47625"/>
@@ -1063,7 +1080,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11112543" y="1875773"/>
+          <a:off x="11121118" y="1828800"/>
           <a:ext cx="1352550" cy="152400"/>
           <a:chOff x="4669725" y="3699038"/>
           <a:chExt cx="1352550" cy="161924"/>
@@ -1467,7 +1484,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9859288" y="6553983"/>
+          <a:off x="9862457" y="6558643"/>
           <a:ext cx="1362075" cy="752475"/>
           <a:chOff x="4664963" y="3403763"/>
           <a:chExt cx="1362075" cy="752475"/>
@@ -1591,7 +1608,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7383441" y="6105395"/>
+          <a:off x="7379154" y="6093279"/>
           <a:ext cx="1609725" cy="238125"/>
           <a:chOff x="4545900" y="3660938"/>
           <a:chExt cx="1600200" cy="238125"/>
@@ -1652,7 +1669,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3828398" y="6162545"/>
+          <a:off x="3822246" y="6150429"/>
           <a:ext cx="2409825" cy="38100"/>
           <a:chOff x="4141088" y="3760950"/>
           <a:chExt cx="2409825" cy="38100"/>
@@ -1713,7 +1730,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10912518" y="4448697"/>
+          <a:off x="10921093" y="4361089"/>
           <a:ext cx="933450" cy="1733550"/>
           <a:chOff x="4879275" y="2917988"/>
           <a:chExt cx="933450" cy="1724025"/>
@@ -1774,7 +1791,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11965618" y="6386839"/>
+          <a:off x="11981089" y="6383111"/>
           <a:ext cx="190500" cy="923925"/>
           <a:chOff x="5250750" y="3322800"/>
           <a:chExt cx="190500" cy="914400"/>
@@ -1835,7 +1852,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8291708" y="1847198"/>
+          <a:off x="8289471" y="1800225"/>
           <a:ext cx="38100" cy="2714625"/>
           <a:chOff x="5326950" y="2427450"/>
           <a:chExt cx="38100" cy="2705100"/>
@@ -1896,7 +1913,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8901308" y="4391547"/>
+          <a:off x="8899071" y="4303939"/>
           <a:ext cx="1600200" cy="342900"/>
           <a:chOff x="4550663" y="3613313"/>
           <a:chExt cx="1590675" cy="333375"/>
@@ -1957,7 +1974,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904875" y="1837673"/>
+          <a:off x="904875" y="1790700"/>
           <a:ext cx="7715250" cy="6067425"/>
           <a:chOff x="1493138" y="746288"/>
           <a:chExt cx="7705725" cy="6067425"/>
@@ -2018,7 +2035,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9897388" y="4420122"/>
+          <a:off x="9900557" y="4332514"/>
           <a:ext cx="609600" cy="3171825"/>
           <a:chOff x="5045963" y="2198850"/>
           <a:chExt cx="600075" cy="3162300"/>
@@ -2079,7 +2096,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4437998" y="6219695"/>
+          <a:off x="4431846" y="6207579"/>
           <a:ext cx="2047875" cy="1143000"/>
           <a:chOff x="4326825" y="3213263"/>
           <a:chExt cx="2038350" cy="1133475"/>
@@ -2140,7 +2157,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2100980" y="7308285"/>
+          <a:off x="2092779" y="7346496"/>
           <a:ext cx="1628775" cy="247650"/>
           <a:chOff x="4536375" y="3656175"/>
           <a:chExt cx="1619250" cy="247650"/>
@@ -2201,7 +2218,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7078641" y="1866248"/>
+          <a:off x="7074354" y="1819275"/>
           <a:ext cx="742950" cy="2400300"/>
           <a:chOff x="4979288" y="2579850"/>
           <a:chExt cx="733425" cy="2400300"/>
@@ -2262,7 +2279,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7002441" y="4410597"/>
+          <a:off x="6998154" y="4322989"/>
           <a:ext cx="133350" cy="1800225"/>
           <a:chOff x="5279325" y="2879888"/>
           <a:chExt cx="133350" cy="1800225"/>
@@ -2323,7 +2340,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7031016" y="3226757"/>
+          <a:off x="7026729" y="3143250"/>
           <a:ext cx="2343150" cy="2990850"/>
           <a:chOff x="4179188" y="2289338"/>
           <a:chExt cx="2333625" cy="2981325"/>
@@ -2384,7 +2401,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8463158" y="1875773"/>
+          <a:off x="8460921" y="1828800"/>
           <a:ext cx="1400175" cy="1619250"/>
           <a:chOff x="4645913" y="2970375"/>
           <a:chExt cx="1400175" cy="1619250"/>
@@ -2998,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F23" activeCellId="1" sqref="I28 F23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3605,6 +3622,9 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
       <c r="E43" s="12"/>
       <c r="F43" s="5" t="s">
         <v>82</v>
@@ -3615,6 +3635,9 @@
       <c r="N43" s="25"/>
     </row>
     <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
       <c r="E44" s="12"/>
       <c r="F44" s="13" t="s">
         <v>83</v>
@@ -3627,6 +3650,9 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="49" t="s">
+        <v>105</v>
+      </c>
       <c r="E45" s="12"/>
       <c r="F45" s="5" t="s">
         <v>86</v>

--- a/M.E.R. (1).xlsx
+++ b/M.E.R. (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Desktop\carroLoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B69F4-F936-4CB7-A104-B8317C1A37D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DDF37-A847-4DEF-93D0-9D1C5EFE972C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,13 +354,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,6 +401,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -578,73 +579,73 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/M.E.R. (1).xlsx
+++ b/M.E.R. (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Desktop\carroLoco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DAVID\Desktop\carroLoco\carroLoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DDF37-A847-4DEF-93D0-9D1C5EFE972C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B82FD3E-D640-405D-A3A6-F4CC3FCD9234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,12 +422,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9CC2E5"/>
         <bgColor rgb="FF9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
@@ -458,6 +452,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FF9CC2E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,50 +614,59 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +707,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7740680" y="3139337"/>
+          <a:off x="7747484" y="3139337"/>
           <a:ext cx="7601467" cy="1983286"/>
           <a:chOff x="4555426" y="3494252"/>
           <a:chExt cx="2292870" cy="699153"/>
@@ -880,7 +901,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8546646" y="1781175"/>
+          <a:off x="8553450" y="1781175"/>
           <a:ext cx="1790700" cy="47625"/>
           <a:chOff x="4450650" y="3756188"/>
           <a:chExt cx="1790700" cy="47625"/>
@@ -1081,7 +1102,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11121118" y="1828800"/>
+          <a:off x="11125200" y="1828800"/>
           <a:ext cx="1352550" cy="152400"/>
           <a:chOff x="4669725" y="3699038"/>
           <a:chExt cx="1352550" cy="161924"/>
@@ -1485,7 +1506,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9862457" y="6558643"/>
+          <a:off x="9867900" y="6505575"/>
           <a:ext cx="1362075" cy="752475"/>
           <a:chOff x="4664963" y="3403763"/>
           <a:chExt cx="1362075" cy="752475"/>
@@ -1609,7 +1630,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7379154" y="6093279"/>
+          <a:off x="7381875" y="6048375"/>
           <a:ext cx="1609725" cy="238125"/>
           <a:chOff x="4545900" y="3660938"/>
           <a:chExt cx="1600200" cy="238125"/>
@@ -1670,7 +1691,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3822246" y="6150429"/>
+          <a:off x="3819525" y="6105525"/>
           <a:ext cx="2409825" cy="38100"/>
           <a:chOff x="4141088" y="3760950"/>
           <a:chExt cx="2409825" cy="38100"/>
@@ -1731,7 +1752,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10921093" y="4361089"/>
+          <a:off x="10925175" y="4352925"/>
           <a:ext cx="933450" cy="1733550"/>
           <a:chOff x="4879275" y="2917988"/>
           <a:chExt cx="933450" cy="1724025"/>
@@ -1792,7 +1813,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11981089" y="6383111"/>
+          <a:off x="11982450" y="6334125"/>
           <a:ext cx="190500" cy="923925"/>
           <a:chOff x="5250750" y="3322800"/>
           <a:chExt cx="190500" cy="914400"/>
@@ -1853,7 +1874,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8289471" y="1800225"/>
+          <a:off x="8296275" y="1800225"/>
           <a:ext cx="38100" cy="2714625"/>
           <a:chOff x="5326950" y="2427450"/>
           <a:chExt cx="38100" cy="2705100"/>
@@ -1914,7 +1935,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8899071" y="4303939"/>
+          <a:off x="8905875" y="4295775"/>
           <a:ext cx="1600200" cy="342900"/>
           <a:chOff x="4550663" y="3613313"/>
           <a:chExt cx="1590675" cy="333375"/>
@@ -2036,7 +2057,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9900557" y="4332514"/>
+          <a:off x="9906000" y="4324350"/>
           <a:ext cx="609600" cy="3171825"/>
           <a:chOff x="5045963" y="2198850"/>
           <a:chExt cx="600075" cy="3162300"/>
@@ -2097,7 +2118,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4431846" y="6207579"/>
+          <a:off x="4429125" y="6162675"/>
           <a:ext cx="2047875" cy="1143000"/>
           <a:chOff x="4326825" y="3213263"/>
           <a:chExt cx="2038350" cy="1133475"/>
@@ -2158,7 +2179,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2092779" y="7346496"/>
+          <a:off x="2095500" y="7277100"/>
           <a:ext cx="1628775" cy="247650"/>
           <a:chOff x="4536375" y="3656175"/>
           <a:chExt cx="1619250" cy="247650"/>
@@ -2219,7 +2240,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7074354" y="1819275"/>
+          <a:off x="7077075" y="1819275"/>
           <a:ext cx="742950" cy="2400300"/>
           <a:chOff x="4979288" y="2579850"/>
           <a:chExt cx="733425" cy="2400300"/>
@@ -2280,7 +2301,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6998154" y="4322989"/>
+          <a:off x="7000875" y="4314825"/>
           <a:ext cx="133350" cy="1800225"/>
           <a:chOff x="5279325" y="2879888"/>
           <a:chExt cx="133350" cy="1800225"/>
@@ -2341,7 +2362,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7026729" y="3143250"/>
+          <a:off x="7029450" y="3143250"/>
           <a:ext cx="2343150" cy="2990850"/>
           <a:chOff x="4179188" y="2289338"/>
           <a:chExt cx="2333625" cy="2981325"/>
@@ -2402,7 +2423,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8460921" y="1828800"/>
+          <a:off x="8467725" y="1828800"/>
           <a:ext cx="1400175" cy="1619250"/>
           <a:chOff x="4645913" y="2970375"/>
           <a:chExt cx="1400175" cy="1619250"/>
@@ -3016,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3044,7 +3065,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="21"/>
+      <c r="F1" s="18"/>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3065,44 +3086,44 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="21"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="21"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="21"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="21"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="C6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="8"/>
@@ -3110,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="37" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="8"/>
@@ -3130,92 +3151,92 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="47" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="28" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="47" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="5" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="47" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="12"/>
@@ -3224,16 +3245,16 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="29" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="47" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="12"/>
@@ -3242,16 +3263,16 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="54" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3263,16 +3284,16 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="55" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3286,14 +3307,14 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="G18" s="22" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="56" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -3305,40 +3326,40 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="53"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="27" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="35" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -3346,156 +3367,159 @@
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="M21" s="25"/>
+      <c r="I21" s="44"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="37"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="38" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="27" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="28" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="M25" s="28" t="s">
+      <c r="K25" s="40"/>
+      <c r="M25" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="I26" s="17" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="I26" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="M26" s="28" t="s">
+      <c r="K26" s="41"/>
+      <c r="M26" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="I27" s="5" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="I27" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="M27" s="25" t="s">
+      <c r="K27" s="41"/>
+      <c r="M27" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="39"/>
-      <c r="I28" s="47"/>
-      <c r="K28" s="46"/>
-      <c r="M28" s="25"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="35"/>
+      <c r="I28" s="51"/>
+      <c r="K28" s="42"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="I29" s="44"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="44"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="49" t="s">
         <v>56</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="46" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3506,7 +3530,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="50" t="s">
         <v>60</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -3517,7 +3541,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="50" t="s">
         <v>62</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -3526,27 +3550,28 @@
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="12"/>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="47" t="s">
         <v>68</v>
       </c>
       <c r="J37" s="7" t="s">
@@ -3554,15 +3579,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="47" t="s">
         <v>71</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -3573,126 +3598,128 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="47" t="s">
         <v>74</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="47" t="s">
         <v>76</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="12"/>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="12"/>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+      <c r="D43" s="44" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="21"/>
     </row>
     <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+      <c r="D44" s="44" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="48" t="s">
         <v>105</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="47" t="s">
         <v>86</v>
       </c>
       <c r="G45" s="12"/>
       <c r="J45" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N45" s="40" t="s">
+      <c r="N45" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="44"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="12"/>
       <c r="J46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N46" s="28" t="s">
+      <c r="N46" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="12"/>
       <c r="J47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="21"/>
     </row>
     <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="53"/>
       <c r="J48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="21"/>
     </row>
     <row r="49" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="12"/>
@@ -3765,7 +3792,7 @@
       </c>
     </row>
     <row r="61" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="23" t="s">
+      <c r="J61" s="19" t="s">
         <v>88</v>
       </c>
     </row>

--- a/M.E.R. (1).xlsx
+++ b/M.E.R. (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DAVID\Desktop\carroLoco\carroLoco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Desktop\carroLoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B82FD3E-D640-405D-A3A6-F4CC3FCD9234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5FAA79-D992-4C28-A327-6E677656582A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +410,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -422,12 +428,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9CC2E5"/>
         <bgColor rgb="FF9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -470,6 +470,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -601,72 +607,70 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3037,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" activeCellId="1" sqref="L49 L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3065,7 +3069,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="18"/>
+      <c r="F1" s="13"/>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3086,440 +3090,442 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="18"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="18"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="18"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="18"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="F6" s="13"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="K8" s="21"/>
+      <c r="C8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="I8" s="38"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="37" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="33"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="G14" s="47" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="25" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="48" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="24" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="56" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="50" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="47"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="31" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="44"/>
-      <c r="M21" s="21"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="I22" s="49" t="s">
+      <c r="G22" s="9"/>
+      <c r="I22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="34" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="23" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="24" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="18" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="M25" s="24" t="s">
+      <c r="K25" s="34"/>
+      <c r="M25" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="I26" s="50" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="I26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="M26" s="24" t="s">
+      <c r="K26" s="35"/>
+      <c r="M26" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="I27" s="47" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="I27" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="M27" s="21" t="s">
+      <c r="K27" s="35"/>
+      <c r="M27" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="35"/>
-      <c r="I28" s="51"/>
-      <c r="K28" s="42"/>
-      <c r="M28" s="21"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="29"/>
+      <c r="I28" s="45"/>
+      <c r="K28" s="36"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="I29" s="44"/>
-      <c r="M29" s="21"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="I29" s="38"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="44"/>
-      <c r="M30" s="21"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="38"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="43" t="s">
         <v>56</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="40" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3530,7 +3536,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="44" t="s">
         <v>60</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -3541,7 +3547,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="44" t="s">
         <v>62</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -3549,256 +3555,261 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
-      <c r="F35" s="47" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="47" t="s">
+      <c r="B36" s="15"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="45" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="47" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="47" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="41" t="s">
         <v>71</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="47" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="47" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="41" t="s">
         <v>74</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="53" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="47" t="s">
+      <c r="B40" s="15"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="41" t="s">
         <v>76</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="12"/>
-      <c r="F41" s="47" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="12"/>
-      <c r="F42" s="47" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="47" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="21"/>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="52" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="47" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="J45" s="5" t="s">
+      <c r="G45" s="9"/>
+      <c r="J45" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="N45" s="36" t="s">
+      <c r="N45" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="44"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="12"/>
-      <c r="J46" s="5" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="9"/>
+      <c r="J46" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="12"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="12"/>
-      <c r="J47" s="5" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="9"/>
+      <c r="J47" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="21"/>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="12"/>
-      <c r="F48" s="53"/>
-      <c r="J48" s="5" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="47"/>
+      <c r="J48" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N48" s="21"/>
-    </row>
-    <row r="49" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="J49" s="5" t="s">
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="J49" s="41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="J50" s="5" t="s">
+      <c r="L49" s="56"/>
+    </row>
+    <row r="50" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="J50" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="12"/>
-      <c r="J51" s="5" t="s">
+    <row r="51" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="9"/>
+      <c r="J51" s="41" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="12"/>
-      <c r="J52" s="5" t="s">
+    <row r="52" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="J52" s="41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="12"/>
-      <c r="J53" s="5" t="s">
+    <row r="53" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="J53" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="12"/>
-      <c r="J54" s="5" t="s">
+    <row r="54" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="J54" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="12"/>
-      <c r="J55" s="5" t="s">
+    <row r="55" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="J55" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="12"/>
-      <c r="J56" s="5" t="s">
+    <row r="56" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="J56" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="5" t="s">
+    <row r="57" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="5" t="s">
+    <row r="58" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J59" s="5" t="s">
+    <row r="59" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="13" t="s">
+    <row r="60" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="19" t="s">
+    <row r="61" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="38"/>
+    </row>
+    <row r="63" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="38"/>
+    </row>
+    <row r="64" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/M.E.R. (1).xlsx
+++ b/M.E.R. (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Desktop\carroLoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5FAA79-D992-4C28-A327-6E677656582A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7E9C7-C1D0-413D-93B7-6089E11E6210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,11 +349,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,82 +602,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,7 +1501,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -1510,7 +1519,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9867900" y="6505575"/>
+          <a:off x="10210800" y="6505575"/>
           <a:ext cx="1362075" cy="752475"/>
           <a:chOff x="4664963" y="3403763"/>
           <a:chExt cx="1362075" cy="752475"/>
@@ -1982,9 +1991,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7715250" cy="6067425"/>
     <xdr:grpSp>
@@ -2000,7 +2009,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904875" y="1790700"/>
+          <a:off x="0" y="1695450"/>
           <a:ext cx="7715250" cy="6067425"/>
           <a:chOff x="1493138" y="746288"/>
           <a:chExt cx="7705725" cy="6067425"/>
@@ -3041,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" activeCellId="1" sqref="L49 L29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3078,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="13"/>
+      <c r="F1" s="12"/>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3090,53 +3099,53 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="I8" s="38"/>
-      <c r="K8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="I8" s="36"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="41" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="37" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="7"/>
@@ -3156,131 +3165,132 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="18" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="18" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="39" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="18" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="41" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="37" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="9"/>
@@ -3289,19 +3299,19 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="38" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="9"/>
@@ -3312,17 +3322,17 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="50" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="39" t="s">
         <v>1</v>
       </c>
       <c r="I18" s="9"/>
@@ -3331,204 +3341,208 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16" t="s">
         <v>37</v>
       </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="25" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="38"/>
-      <c r="M21" s="15"/>
+      <c r="I21" s="36"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="4" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="I22" s="43" t="s">
+      <c r="G22" s="45"/>
+      <c r="I22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="28" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="36"/>
+      <c r="G24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="18" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="M25" s="18" t="s">
+      <c r="K25" s="33"/>
+      <c r="M25" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="I26" s="44" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="I26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="M26" s="18" t="s">
+      <c r="K26" s="34"/>
+      <c r="M26" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="I27" s="41" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="I27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="35"/>
-      <c r="M27" s="15" t="s">
+      <c r="K27" s="34"/>
+      <c r="M27" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="29"/>
-      <c r="I28" s="45"/>
-      <c r="K28" s="36"/>
-      <c r="M28" s="15"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="28"/>
+      <c r="I28" s="43"/>
+      <c r="K28" s="35"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="I29" s="38"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="I29" s="36"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="38"/>
-      <c r="M30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="36"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>56</v>
       </c>
+      <c r="H31" s="36"/>
       <c r="J31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="37" t="s">
         <v>58</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -3536,10 +3550,11 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="44" t="s">
+      <c r="C33" s="36"/>
+      <c r="F33" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="38" t="s">
         <v>35</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -3547,267 +3562,270 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="39" t="s">
         <v>64</v>
       </c>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="14"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="39" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="39" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="41" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="41" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="J38" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="41" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="41" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="14"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="H41" s="36"/>
+      <c r="J41" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="53" t="s">
+      <c r="J43" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="15"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="36" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="53" t="s">
+      <c r="J44" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="40" t="s">
         <v>105</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="39" t="s">
         <v>86</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="J45" s="41" t="s">
+      <c r="J45" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="N45" s="30" t="s">
+      <c r="M45" s="58"/>
+      <c r="N45" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="38"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="47"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="9"/>
-      <c r="J46" s="54" t="s">
+      <c r="J46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
-      <c r="F47" s="47"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="9"/>
-      <c r="J47" s="41" t="s">
+      <c r="J47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="15"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
-      <c r="F48" s="47"/>
-      <c r="J48" s="54" t="s">
+      <c r="F48" s="45"/>
+      <c r="J48" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="N48" s="15"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="J49" s="41" t="s">
+      <c r="J49" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L49" s="56"/>
+      <c r="L49" s="54"/>
     </row>
     <row r="50" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="J50" s="41" t="s">
+      <c r="J50" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="9"/>
-      <c r="J51" s="41" t="s">
+      <c r="J51" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="9"/>
-      <c r="J52" s="41" t="s">
+      <c r="J52" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="9"/>
-      <c r="J53" s="41" t="s">
+      <c r="J53" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="9"/>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="9"/>
-      <c r="J55" s="41" t="s">
+      <c r="J55" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
-      <c r="J56" s="41" t="s">
+      <c r="J56" s="39" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="41" t="s">
+      <c r="J57" s="39" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="41" t="s">
+      <c r="J58" s="39" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J59" s="41" t="s">
+      <c r="J59" s="39" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="46" t="s">
+      <c r="J60" s="44" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J62" s="38"/>
+      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J63" s="38"/>
+      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
